--- a/questions.xlsx
+++ b/questions.xlsx
@@ -477,28 +477,9 @@
           <t>按照法定节日，带薪年假，加班补偿，其他福利执行</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>公司年假政策通常包含以下主要内容：
-### 一、年假天数
-根据中国《劳动法》规定，大多数企业实行**带薪年假制度**，具体天数一般为：
-- **12-20天**（部分企业可能有更长或更短的假期）。
-- 年假天数会根据公司规模和行业特点有所不同。
-### 二、发放方式
-年假通常以现金形式发放，也可通过电子支付（如支付宝/微信）、银行转账等方式实现。部分企业还提供灵活的支付渠道。
-### 三、适用范围
-年假适用于**员工正常工作期间**，具体可参考公司制度或劳动合同约定的内容。
-### 四、申请与领取方式
-- **申请流程**：员工需提前填写年假申请表，并提交相关证明材料（如身份证、社保卡等）。
-- **领取时间**：通常在每年12月31日前发放，具体以公司规定为准。
-### 五、注意事项
-- 年假天数与工资发放周期可能有差异，建议关注公司政策。
-- 员工应提前了解年假的具体安排，并遵守劳动法相关规定。
-如需了解更详细的信息，请咨询所在公司的人力资源部门或查看公司内部的年假制度文件。</t>
-        </is>
-      </c>
+      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>0.0379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -477,9 +477,25 @@
           <t>按照法定节日，带薪年假，加班补偿，其他福利执行</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>公司的年假政策通常包括以下几个核心内容：
+1. **休假天数**：大多数企业会设置法定年假（如20-36周），具体天数取决于所在地区和公司制度。例如：
+   - 在中国，一般为**12-25个工作日**。
+   - 其他地区可能根据当地法规略有不同。
+2. **休假类型**：通常分为：
+   - 普通年假（法定节假日）
+   - 专项年假（如纪念日、生日等）
+3. **工作安排**：部分公司会要求员工在假期前完成特定任务，或提供弹性工作制以减少影响日常运营。
+4. **政策差异**：不同行业和地区可能有差异：
+   - 高薪行业或跨国企业通常更灵活。
+   - 公司制度的变更可能导致年假天数调整。
+5. **注意事项**：建议查看公司官方文件，确认具体政策细节（如是否包含带薪育儿假、加班假等）。  
+如果您能提供更多地区或公司信息，我可以进一步协助分析。</t>
+        </is>
+      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0487</v>
       </c>
     </row>
     <row r="3">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -479,23 +479,22 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>公司的年假政策通常包括以下几个核心内容：
-1. **休假天数**：大多数企业会设置法定年假（如20-36周），具体天数取决于所在地区和公司制度。例如：
-   - 在中国，一般为**12-25个工作日**。
-   - 其他地区可能根据当地法规略有不同。
-2. **休假类型**：通常分为：
-   - 普通年假（法定节假日）
-   - 专项年假（如纪念日、生日等）
-3. **工作安排**：部分公司会要求员工在假期前完成特定任务，或提供弹性工作制以减少影响日常运营。
-4. **政策差异**：不同行业和地区可能有差异：
-   - 高薪行业或跨国企业通常更灵活。
-   - 公司制度的变更可能导致年假天数调整。
-5. **注意事项**：建议查看公司官方文件，确认具体政策细节（如是否包含带薪育儿假、加班假等）。  
-如果您能提供更多地区或公司信息，我可以进一步协助分析。</t>
+          <t>公司通常会根据自身情况制定年假政策，以下是一般常见的内容和规定：
+1. **法定节假日**  
+   - 公司法定节假日（如元旦、春节等）的天数与国家法定节假日一致。员工可正常享有相应的带薪休假。
+2. **年度内可调休假**  
+   - 员工可根据公司安排，每年在年假中申请一定数量的假期（例如：带薪年假通常为12个月）。具体天数需根据公司规定和政策确定。
+3. **加班工资与绩效奖金**  
+   - 若员工因工作原因加班导致缺勤，应按《劳动法》规定支付相应加班工资。同时，部分公司会设置年度绩效奖金作为额外奖励。
+4. **其他福利**  
+   - 可能包括带薪年假、医疗保障等，具体细节需通过公司内部公告或人力资源部门说明。
+**建议**：  
+- 联系所在公司的人力资源部门或通过员工手册了解详细规定。  
+- 若有特殊行业（如金融、医疗）的年假政策差异，也可咨询相关单位。</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.0487</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="3">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -479,22 +479,26 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>公司通常会根据自身情况制定年假政策，以下是一般常见的内容和规定：
-1. **法定节假日**  
-   - 公司法定节假日（如元旦、春节等）的天数与国家法定节假日一致。员工可正常享有相应的带薪休假。
-2. **年度内可调休假**  
-   - 员工可根据公司安排，每年在年假中申请一定数量的假期（例如：带薪年假通常为12个月）。具体天数需根据公司规定和政策确定。
-3. **加班工资与绩效奖金**  
-   - 若员工因工作原因加班导致缺勤，应按《劳动法》规定支付相应加班工资。同时，部分公司会设置年度绩效奖金作为额外奖励。
-4. **其他福利**  
-   - 可能包括带薪年假、医疗保障等，具体细节需通过公司内部公告或人力资源部门说明。
-**建议**：  
-- 联系所在公司的人力资源部门或通过员工手册了解详细规定。  
-- 若有特殊行业（如金融、医疗）的年假政策差异，也可咨询相关单位。</t>
+          <t>公司年假政策通常由人力资源部门制定，并根据国家法律法规及企业的实际情况进行调整。以下是常见的相关内容：
+### 1. **法定节假日天数**
+   - 公司一般会按国家标准（如《职工带薪年假规定》）执行，每年法定节假日为：**12-13天**（具体可能因地区和政策略有不同）。例如，春节、国庆节等国家法定节日均计入全年。
+### 2. **年假发放方式**
+   - 年假通常以“带薪年假”形式发放，员工需提前申请并缴纳一定比例的费用。部分公司会根据实际工作情况灵活调整天数或发放其他形式（如工资补发）。
+### 3. **与工作时间的关系**
+   - 年假天数通常不超过**全年工作日数**（按365天计算），且不直接影响正常工作时间。例如，若员工每年享有12-13天年假，则可安排部分周末或节假日休息。
+### 4. **特殊规定**
+   - 公司可能设有以下例外情况：
+     - **因公出差需休年假**：员工需提前申请并提供相关证明。
+     - **家庭有事需调休**：根据公司制度灵活处理，可能涉及额外费用或调整休假天数。
+### 5. **如何申请**
+   - 员工可通过公司内部系统填写“带薪年假申请表”，提交个人资料后经审批可领取。部分企业还提供线上缴纳服务（如社保缴纳）。
+### 注意事项：
+- 公司政策会根据行业特点、地区法规及企业战略进行调整，建议定期查看官方公告或与HR沟通以获取最新信息。
+- 年假天数应严格遵循公司规定，避免因天数过长影响正常工作安排。</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.0804</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="3">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -479,26 +479,13 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>公司年假政策通常由人力资源部门制定，并根据国家法律法规及企业的实际情况进行调整。以下是常见的相关内容：
-### 1. **法定节假日天数**
-   - 公司一般会按国家标准（如《职工带薪年假规定》）执行，每年法定节假日为：**12-13天**（具体可能因地区和政策略有不同）。例如，春节、国庆节等国家法定节日均计入全年。
-### 2. **年假发放方式**
-   - 年假通常以“带薪年假”形式发放，员工需提前申请并缴纳一定比例的费用。部分公司会根据实际工作情况灵活调整天数或发放其他形式（如工资补发）。
-### 3. **与工作时间的关系**
-   - 年假天数通常不超过**全年工作日数**（按365天计算），且不直接影响正常工作时间。例如，若员工每年享有12-13天年假，则可安排部分周末或节假日休息。
-### 4. **特殊规定**
-   - 公司可能设有以下例外情况：
-     - **因公出差需休年假**：员工需提前申请并提供相关证明。
-     - **家庭有事需调休**：根据公司制度灵活处理，可能涉及额外费用或调整休假天数。
-### 5. **如何申请**
-   - 员工可通过公司内部系统填写“带薪年假申请表”，提交个人资料后经审批可领取。部分企业还提供线上缴纳服务（如社保缴纳）。
-### 注意事项：
-- 公司政策会根据行业特点、地区法规及企业战略进行调整，建议定期查看官方公告或与HR沟通以获取最新信息。
-- 年假天数应严格遵循公司规定，避免因天数过长影响正常工作安排。</t>
+          <t>中国劳动法明确规定了法定节假日的安排，具体包括以下时间点：1月1日、3月15日、5月1日、7月1日、8月1日和10月1日，每个节日休息三天。这些时间点通常是公休假日，员工在这些日期可以正常上班。
+关于年假政策的具体内容，公司通常会根据实际情况制定相应的制度。如果公司有明确的年假安排，例如每年固定发放工资或延长工作时间，则相关细节应以公司规定为准。此外，部分企业可能还会结合实际情况灵活调整年假天数，确保员工权益不受影响。
+重要提醒：公司政策需符合国家法律法规，并且不得随意增加或减少假期天数。建议您关注具体公司的年假安排，并了解其实际执行情况。</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.0295</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="3">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -479,13 +479,31 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>中国劳动法明确规定了法定节假日的安排，具体包括以下时间点：1月1日、3月15日、5月1日、7月1日、8月1日和10月1日，每个节日休息三天。这些时间点通常是公休假日，员工在这些日期可以正常上班。
-关于年假政策的具体内容，公司通常会根据实际情况制定相应的制度。如果公司有明确的年假安排，例如每年固定发放工资或延长工作时间，则相关细节应以公司规定为准。此外，部分企业可能还会结合实际情况灵活调整年假天数，确保员工权益不受影响。
-重要提醒：公司政策需符合国家法律法规，并且不得随意增加或减少假期天数。建议您关注具体公司的年假安排，并了解其实际执行情况。</t>
+          <t>公司年假政策通常包括以下主要内容和规定：
+### 1. **法定节假日**
+   - **核心内容**：根据国家法律法规（如《劳动法》），公司需明确列出法定节假日，并在员工手册或公示栏中说明。例如：
+     - 春节、春节假期（含元旦）、中秋节、国庆节等。
+   - **时间安排**：通常每年1月1日到12月31日，具体日期根据国家法定节假日调整。
+### 2. **年假的使用规则**
+   - **最长假期**：一般为12个月（如36个月），但公司可能对实际工作年限和岗位进行弹性安排。
+   - **灵活发放**：员工可提前申请、调休或领取额外福利（如带薪年假）。
+### 3. **员工权利与义务**
+   - **合法合规**：政策应符合国家法律法规，保障员工合法权益，并避免滥用假期影响工作节奏。
+   - **公司责任**：公司需确保假期制度公平合理，避免因管理不当引发争议。
+### 4. **弹性工作制**
+   - **远程办公**：部分公司允许员工灵活安排工作时间（如远程办公、弹性上下班）。
+   - **加班政策**：若公司有弹性安排，需明确加班天数和休息要求，并确保与员工沟通透明。
+### 5. **注意事项**
+   - **请假流程**：员工可向直属领导申请年假，但需提前填写审批表或通过OA系统提交。
+   - **假期使用规则**：通常按月计算，若年度总工龄超过法定标准，则可能自动增加年假天数（如20岁员工每年12个月）。
+### 6. **特殊情况处理**
+   - 若员工因特殊原因（如家庭、医疗等）需延长年假，公司应提供额外支持，并确保流程合规。
+### 总结
+公司年假政策的核心是平衡员工工作与生活需求，同时符合国家法律法规和公司内部管理规范。建议结合具体公司政策调整内容，确保制度透明且公平合理。</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.0805</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="3">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -479,31 +479,24 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>公司年假政策通常包括以下主要内容和规定：
-### 1. **法定节假日**
-   - **核心内容**：根据国家法律法规（如《劳动法》），公司需明确列出法定节假日，并在员工手册或公示栏中说明。例如：
-     - 春节、春节假期（含元旦）、中秋节、国庆节等。
-   - **时间安排**：通常每年1月1日到12月31日，具体日期根据国家法定节假日调整。
-### 2. **年假的使用规则**
-   - **最长假期**：一般为12个月（如36个月），但公司可能对实际工作年限和岗位进行弹性安排。
-   - **灵活发放**：员工可提前申请、调休或领取额外福利（如带薪年假）。
-### 3. **员工权利与义务**
-   - **合法合规**：政策应符合国家法律法规，保障员工合法权益，并避免滥用假期影响工作节奏。
-   - **公司责任**：公司需确保假期制度公平合理，避免因管理不当引发争议。
-### 4. **弹性工作制**
-   - **远程办公**：部分公司允许员工灵活安排工作时间（如远程办公、弹性上下班）。
-   - **加班政策**：若公司有弹性安排，需明确加班天数和休息要求，并确保与员工沟通透明。
-### 5. **注意事项**
-   - **请假流程**：员工可向直属领导申请年假，但需提前填写审批表或通过OA系统提交。
-   - **假期使用规则**：通常按月计算，若年度总工龄超过法定标准，则可能自动增加年假天数（如20岁员工每年12个月）。
-### 6. **特殊情况处理**
-   - 若员工因特殊原因（如家庭、医疗等）需延长年假，公司应提供额外支持，并确保流程合规。
-### 总结
-公司年假政策的核心是平衡员工工作与生活需求，同时符合国家法律法规和公司内部管理规范。建议结合具体公司政策调整内容，确保制度透明且公平合理。</t>
+          <t>公司年假政策的具体内容通常取决于企业的具体情况和当地法律法规的规定。以下是常见的方面：
+1. **法定节假日**：大多数企业在法定节假日（如元旦、春节、国庆节等）提供带薪休假。例如，中国实行的“三一”制度（元旦、春节期间、国庆节），每年通常有3天年假，具体天数可能根据公司政策有所不同。
+2. **年假天数**：年假天数一般为12个月（即12个月法定节假日）。部分公司可能提供额外的带薪年假（如3-5个月）以增加员工福利。
+3. **休假与工作时间的关系**：
+   - 年假通常不直接影响正常工作时间，但需在申请后向公司备案。
+   - 如果公司有弹性工作制或远程办公政策，年假可能与这些安排结合使用。
+4. **福利待遇**：部分企业会提供带薪年假、补充医疗保险、职业培训等额外福利。
+5. **例外情况**：
+   - 个别特殊情况（如公司特殊规定）可能会调整年假天数。
+   - 若员工因工作原因需提前申请年假，可向直属上级或HR提交书面申请。
+6. **获取信息渠道**：
+   - 查阅公司内部政策文件（如《员工手册》或人事部通知）。
+   - 关注企业官网、招聘平台或与HR沟通了解最新规定。
+建议关注公司官方发布的年假政策，并注意与实际操作中的细节差异。</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.0323</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="3">
